--- a/public/formato.xlsx
+++ b/public/formato.xlsx
@@ -1,34 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josue\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C69C230-4A4A-4BC5-8A52-B2E4FC449D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="formato" sheetId="1" r:id="rId1"/>
+    <sheet name="formato" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">formato!$A$1:$I$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'formato'!$A$1:$I$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t xml:space="preserve">REPUBLICA DE PANAMA </t>
   </si>
@@ -84,6 +73,9 @@
     <t>ACTIVOS PATRIMONIALES</t>
   </si>
   <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
     <t>Especificaciones/EXT.</t>
   </si>
   <si>
@@ -105,6 +97,9 @@
     <t>Serie</t>
   </si>
   <si>
+    <t>Estado</t>
+  </si>
+  <si>
     <t>Observaciones:</t>
   </si>
   <si>
@@ -129,37 +124,33 @@
     <t xml:space="preserve">Fecha </t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Cantidad</t>
+    <t>Foto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -173,7 +164,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -187,16 +178,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -205,7 +196,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,53 +204,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="13">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" fontId="0" numFmtId="1" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -268,25 +254,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>855133</xdr:colOff>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>663045</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>122767</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893C23C5-7964-4EC2-BDCA-518D79FB9AC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="Imagen 1" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -298,9 +278,8 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="855133" y="0"/>
-          <a:ext cx="960437" cy="922867"/>
+        <a:xfrm rot="0">
+          <a:ext cx="962025" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -312,45 +291,32 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>719666</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>6463</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF884F4-5C07-4376-83D4-0C4A55182031}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Imagen 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8882591" y="0"/>
-          <a:ext cx="1020234" cy="1006588"/>
+        <a:xfrm rot="0">
+          <a:ext cx="1019175" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -363,7 +329,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -405,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -440,7 +406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -484,202 +450,236 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="82" zoomScaleNormal="82" showGridLines="false" showRowColHeaders="1">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="18.3984375" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" customWidth="1"/>
-    <col min="7" max="7" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.5" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13.8984375" customWidth="true" style="0"/>
+    <col min="4" max="4" width="14.5" customWidth="true" style="0"/>
+    <col min="5" max="5" width="18.3984375" customWidth="true" style="0"/>
+    <col min="6" max="6" width="11.8984375" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.8984375" customWidth="true" style="0"/>
+    <col min="8" max="8" width="19.5" customWidth="true" style="0"/>
+    <col min="9" max="9" width="12.3984375" customWidth="true" style="0"/>
+    <col min="10" max="10" width="15" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
+      <c r="A1"/>
       <c r="D1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2"/>
       <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
+      <c r="A3"/>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
+      <c r="A4"/>
       <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
+      <c r="A5"/>
       <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -698,7 +698,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -713,7 +713,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -723,7 +723,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -733,7 +733,7 @@
       </c>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -743,7 +743,7 @@
       </c>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -753,7 +753,7 @@
       </c>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -763,7 +763,7 @@
       </c>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -773,7 +773,7 @@
       </c>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="11" t="s">
         <v>17</v>
       </c>
@@ -786,36 +786,39 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -826,7 +829,7 @@
       <c r="H16" s="8"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -837,7 +840,7 @@
       <c r="H17" s="8"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -848,7 +851,7 @@
       <c r="H18" s="8"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -859,7 +862,7 @@
       <c r="H19" s="8"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -870,7 +873,7 @@
       <c r="H20" s="8"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -881,7 +884,7 @@
       <c r="H21" s="8"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -892,7 +895,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -903,7 +906,7 @@
       <c r="H23" s="7"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -914,7 +917,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -925,7 +928,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -936,7 +939,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -947,7 +950,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -958,7 +961,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -969,7 +972,7 @@
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -980,12 +983,12 @@
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -995,56 +998,56 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="B36" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" s="9"/>
       <c r="G36" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="B39" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C39" s="9"/>
       <c r="G39" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H39" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells>
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
@@ -1061,8 +1064,18 @@
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="F38:I38"/>
   </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="80" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="80" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1ps"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <drawing r:id="rId2"/>
+  <tableParts count="0"/>
 </worksheet>
 </file>